--- a/app/src/main/assets/sample_data/teachers.xlsx
+++ b/app/src/main/assets/sample_data/teachers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17895"/>
   </bookViews>
   <sheets>
     <sheet name="教师数据表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="229">
   <si>
     <t>教师ID</t>
   </si>
@@ -62,6 +62,9 @@
     <t>男</t>
   </si>
   <si>
+    <t>18753873514</t>
+  </si>
+  <si>
     <t>计算机学院</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>女</t>
   </si>
   <si>
+    <t>19964813572</t>
+  </si>
+  <si>
     <t>艺术学院</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>孙雅琪</t>
   </si>
   <si>
+    <t>18652974130</t>
+  </si>
+  <si>
     <t>商学院</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t>赵梓涵</t>
   </si>
   <si>
+    <t>15773826419</t>
+  </si>
+  <si>
     <t>化学化工学院</t>
   </si>
   <si>
@@ -125,6 +137,9 @@
     <t>李雪梅</t>
   </si>
   <si>
+    <t>13864782910</t>
+  </si>
+  <si>
     <t>软件工程系</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
     <t>田雨萌</t>
   </si>
   <si>
+    <t>13574891263</t>
+  </si>
+  <si>
     <t>生命科学学院</t>
   </si>
   <si>
@@ -152,6 +170,9 @@
     <t>刘思雨</t>
   </si>
   <si>
+    <t>18953762410</t>
+  </si>
+  <si>
     <t>自动化学院</t>
   </si>
   <si>
@@ -167,6 +188,9 @@
     <t>郭子墨</t>
   </si>
   <si>
+    <t>13672954810</t>
+  </si>
+  <si>
     <t>文学院</t>
   </si>
   <si>
@@ -182,6 +206,9 @@
     <t>冯浩然</t>
   </si>
   <si>
+    <t>19953862417</t>
+  </si>
+  <si>
     <t>机械工程学院</t>
   </si>
   <si>
@@ -197,6 +224,9 @@
     <t>陈昊阳</t>
   </si>
   <si>
+    <t>17782649135</t>
+  </si>
+  <si>
     <t>外国语学院</t>
   </si>
   <si>
@@ -212,6 +242,9 @@
     <t>周宇航</t>
   </si>
   <si>
+    <t>15083769245</t>
+  </si>
+  <si>
     <t>生物科学系</t>
   </si>
   <si>
@@ -224,6 +257,9 @@
     <t>张语桐</t>
   </si>
   <si>
+    <t>15973826410</t>
+  </si>
+  <si>
     <t>会计学系</t>
   </si>
   <si>
@@ -236,24 +272,24 @@
     <t>周欣怡</t>
   </si>
   <si>
+    <t>15572964813</t>
+  </si>
+  <si>
     <t>机械设计系</t>
   </si>
   <si>
     <t>机械制图</t>
   </si>
   <si>
-    <t>网络工程系</t>
-  </si>
-  <si>
-    <t>计算机网络原理</t>
-  </si>
-  <si>
     <t>J12140125</t>
   </si>
   <si>
     <t>黄雅萱</t>
   </si>
   <si>
+    <t>13664917253</t>
+  </si>
+  <si>
     <t>化学系</t>
   </si>
   <si>
@@ -266,6 +302,9 @@
     <t>赵宇辰</t>
   </si>
   <si>
+    <t>17894623517</t>
+  </si>
+  <si>
     <t>数学学院</t>
   </si>
   <si>
@@ -281,6 +320,9 @@
     <t>高俊熙</t>
   </si>
   <si>
+    <t>18963724510</t>
+  </si>
+  <si>
     <t>化工系</t>
   </si>
   <si>
@@ -293,6 +335,9 @@
     <t>马子轩</t>
   </si>
   <si>
+    <t>18853692741</t>
+  </si>
+  <si>
     <t>日语系</t>
   </si>
   <si>
@@ -305,6 +350,9 @@
     <t>吴子昂</t>
   </si>
   <si>
+    <t>17783692541</t>
+  </si>
+  <si>
     <t>机械电子工程系</t>
   </si>
   <si>
@@ -317,6 +365,9 @@
     <t>郑浩然</t>
   </si>
   <si>
+    <t>18853972416</t>
+  </si>
+  <si>
     <t>生物技术系</t>
   </si>
   <si>
@@ -329,6 +380,9 @@
     <t>王梓轩</t>
   </si>
   <si>
+    <t>17684913527</t>
+  </si>
+  <si>
     <t>国际经济与贸易系</t>
   </si>
   <si>
@@ -341,6 +395,9 @@
     <t>刘雅婷</t>
   </si>
   <si>
+    <t>15896317420</t>
+  </si>
+  <si>
     <t>电子信息学院</t>
   </si>
   <si>
@@ -356,6 +413,9 @@
     <t>郑雨桐</t>
   </si>
   <si>
+    <t>18894723615</t>
+  </si>
+  <si>
     <t>机械制造系</t>
   </si>
   <si>
@@ -368,6 +428,9 @@
     <t>陈雨涵</t>
   </si>
   <si>
+    <t>15183769245</t>
+  </si>
+  <si>
     <t>数学系</t>
   </si>
   <si>
@@ -380,6 +443,9 @@
     <t>陈俊豪</t>
   </si>
   <si>
+    <t>13364891725</t>
+  </si>
+  <si>
     <t>自动化系</t>
   </si>
   <si>
@@ -404,6 +470,9 @@
     <t>徐雨欣</t>
   </si>
   <si>
+    <t>17884913526</t>
+  </si>
+  <si>
     <t>环境工程系</t>
   </si>
   <si>
@@ -416,6 +485,9 @@
     <t>吴佳琪</t>
   </si>
   <si>
+    <t>17794623518</t>
+  </si>
+  <si>
     <t>基因工程</t>
   </si>
   <si>
@@ -425,6 +497,9 @@
     <t>张伟明</t>
   </si>
   <si>
+    <t>15075924681</t>
+  </si>
+  <si>
     <t>电子工程系</t>
   </si>
   <si>
@@ -437,6 +512,9 @@
     <t>李昊阳</t>
   </si>
   <si>
+    <t>13564891273</t>
+  </si>
+  <si>
     <t>工商管理系</t>
   </si>
   <si>
@@ -449,6 +527,9 @@
     <t>赵雨欣</t>
   </si>
   <si>
+    <t>13947528613</t>
+  </si>
+  <si>
     <t>英语系</t>
   </si>
   <si>
@@ -461,118 +542,178 @@
     <t>陈思远</t>
   </si>
   <si>
+    <t>18653729410</t>
+  </si>
+  <si>
     <t>J12140135</t>
   </si>
   <si>
     <t>林雨彤</t>
   </si>
   <si>
+    <t>15974836210</t>
+  </si>
+  <si>
     <t>J12140136</t>
   </si>
   <si>
     <t>张浩然</t>
   </si>
   <si>
+    <t>17785693421</t>
+  </si>
+  <si>
     <t>J12140137</t>
   </si>
   <si>
     <t>刘佳怡</t>
   </si>
   <si>
+    <t>13684927530</t>
+  </si>
+  <si>
     <t>J12140138</t>
   </si>
   <si>
     <t>周子轩</t>
   </si>
   <si>
+    <t>18954736210</t>
+  </si>
+  <si>
     <t>J12140139</t>
   </si>
   <si>
     <t>王雨欣</t>
   </si>
   <si>
+    <t>15874639210</t>
+  </si>
+  <si>
     <t>J12140140</t>
   </si>
   <si>
     <t>李浩宇</t>
   </si>
   <si>
+    <t>17694835210</t>
+  </si>
+  <si>
     <t>J12140141</t>
   </si>
   <si>
     <t>张雨桐</t>
   </si>
   <si>
+    <t>13584726391</t>
+  </si>
+  <si>
     <t>J12140142</t>
   </si>
   <si>
     <t>吴俊豪</t>
   </si>
   <si>
+    <t>18865749320</t>
+  </si>
+  <si>
     <t>J12140143</t>
   </si>
   <si>
     <t>马雨涵</t>
   </si>
   <si>
+    <t>15194736280</t>
+  </si>
+  <si>
     <t>J12140144</t>
   </si>
   <si>
     <t>高梓轩</t>
   </si>
   <si>
+    <t>17795648320</t>
+  </si>
+  <si>
     <t>J12140145</t>
   </si>
   <si>
     <t>林雅琪</t>
   </si>
   <si>
+    <t>13674829530</t>
+  </si>
+  <si>
     <t>J12140146</t>
   </si>
   <si>
     <t>王子豪</t>
   </si>
   <si>
+    <t>18945673210</t>
+  </si>
+  <si>
     <t>J12140147</t>
   </si>
   <si>
     <t>郑雅萱</t>
   </si>
   <si>
+    <t>15074836291</t>
+  </si>
+  <si>
     <t>J12140148</t>
   </si>
   <si>
     <t>周俊熙</t>
   </si>
   <si>
+    <t>17865943210</t>
+  </si>
+  <si>
     <t>J12140149</t>
   </si>
   <si>
     <t>吴雨桐</t>
   </si>
   <si>
+    <t>13954726381</t>
+  </si>
+  <si>
     <t>J12140150</t>
   </si>
   <si>
     <t>陈思琪</t>
   </si>
   <si>
+    <t>15864739210</t>
+  </si>
+  <si>
     <t>J12140151</t>
   </si>
   <si>
     <t>张宇辰</t>
   </si>
   <si>
+    <t>18756493210</t>
+  </si>
+  <si>
     <t>J12140152</t>
   </si>
   <si>
     <t>刘浩然</t>
   </si>
   <si>
+    <t>17784639520</t>
+  </si>
+  <si>
     <t>J12140153</t>
   </si>
   <si>
     <t>赵雅婷</t>
+  </si>
+  <si>
+    <t>13694827530</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1338,9 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1732,10 +1876,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1782,77 +1926,77 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>18753873514</v>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>19964813572</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>123456</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>18652974130</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>123456</v>
@@ -1860,103 +2004,103 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>15773826419</v>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>123456</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>13864782910</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>123456</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>13574891263</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>123456</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>18953762410</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>123456</v>
@@ -1964,25 +2108,25 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>13672954810</v>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>123456</v>
@@ -1990,25 +2134,25 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>19953862417</v>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>123456</v>
@@ -2016,25 +2160,25 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>17782649135</v>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>123456</v>
@@ -2042,129 +2186,129 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>15083769245</v>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>123456</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>15973826410</v>
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>123456</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>15572964813</v>
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>123456</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>18753873514</v>
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>123456</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>13664917253</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>123456</v>
@@ -2172,25 +2316,25 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>17894623517</v>
+      <c r="E17" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>123456</v>
@@ -2198,25 +2342,25 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>18963724510</v>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>123456</v>
@@ -2224,25 +2368,25 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19">
-        <v>18853692741</v>
+      <c r="E19" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C20">
         <v>123456</v>
@@ -2250,25 +2394,25 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20">
-        <v>17783692541</v>
+      <c r="E20" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C21">
         <v>123456</v>
@@ -2276,233 +2420,233 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
-        <v>18853972416</v>
+      <c r="E21" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C22">
         <v>123456</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>17684913527</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>123456</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>15896317420</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>123456</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>18894723615</v>
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>123456</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>15183769245</v>
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C26">
         <v>123456</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>13364891725</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>123456</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>19964813572</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C28">
         <v>123456</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28">
-        <v>17884913526</v>
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C29">
         <v>123456</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29">
-        <v>17794623518</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C30">
         <v>123456</v>
@@ -2510,519 +2654,519 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30">
-        <v>15075924681</v>
+      <c r="E30" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C31">
         <v>123456</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>13564891273</v>
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C32">
         <v>123456</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>13947528613</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="C33">
         <v>123456</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>18653729410</v>
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C34">
         <v>123456</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>15974836210</v>
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C35">
         <v>123456</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>17785693421</v>
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C36">
         <v>123456</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <v>13684927530</v>
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C37">
         <v>123456</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>18954736210</v>
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C38">
         <v>123456</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>15874639210</v>
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="C39">
         <v>123456</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>17694835210</v>
+        <v>17</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C40">
         <v>123456</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40">
-        <v>13584726391</v>
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C41">
         <v>123456</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>18865749320</v>
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H41" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C42">
         <v>123456</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42">
-        <v>15194736280</v>
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="C43">
         <v>123456</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>17795648320</v>
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C44">
         <v>123456</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44">
-        <v>13674829530</v>
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C45">
         <v>123456</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>18945673210</v>
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C46">
         <v>123456</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46">
-        <v>15074836291</v>
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="C47">
         <v>123456</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>17865943210</v>
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="H47" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="C48">
         <v>123456</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48">
-        <v>13954726381</v>
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C49">
         <v>123456</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49">
-        <v>15864739210</v>
+        <v>10</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H49" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="C50">
         <v>123456</v>
@@ -3030,69 +3174,43 @@
       <c r="D50" t="s">
         <v>10</v>
       </c>
-      <c r="E50">
-        <v>18756493210</v>
+      <c r="E50" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C51">
         <v>123456</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51">
-        <v>17784639520</v>
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52">
-        <v>123456</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52">
-        <v>13694827530</v>
-      </c>
-      <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
